--- a/output/202511/asignacion_202511_Ica.xlsx
+++ b/output/202511/asignacion_202511_Ica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,7 +501,12 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ASSIGNMENTS</t>
+          <t>ASSIGNMENTS.AULA</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>ASSIGNMENTS.AFORO</t>
         </is>
       </c>
     </row>
@@ -567,8 +572,11 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>{'AULA': '103', 'AFORO': 17}</t>
-        </is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -633,8 +641,11 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>{'AULA': '108', 'AFORO': 12}</t>
-        </is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -699,8 +710,11 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>{'AULA': '204', 'AFORO': 19}</t>
-        </is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="5">
@@ -765,8 +779,11 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>{'AULA': '104', 'AFORO': 13}</t>
-        </is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="6">
@@ -831,8 +848,11 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>{'AULA': '104', 'AFORO': 13}</t>
-        </is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="7">
@@ -897,8 +917,11 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>{'AULA': '108', 'AFORO': 12}</t>
-        </is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="O7" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -963,8 +986,11 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>{'AULA': '108', 'AFORO': 12}</t>
-        </is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="O8" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -1029,8 +1055,11 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>{'AULA': '203', 'AFORO': 14}</t>
-        </is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="O9" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -1095,8 +1124,11 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>{'AULA': '204', 'AFORO': 19}</t>
-        </is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="O10" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="11">
@@ -1161,8 +1193,11 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>{'AULA': '202', 'AFORO': 15}</t>
-        </is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="O11" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="12">
@@ -1227,8 +1262,11 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>{'AULA': '203', 'AFORO': 14}</t>
-        </is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="O12" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="13">
@@ -1293,8 +1331,11 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>{'AULA': '106', 'AFORO': 19}</t>
-        </is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="O13" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -1359,8 +1400,11 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>{'AULA': '106', 'AFORO': 19}</t>
-        </is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="O14" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="15">
@@ -1425,8 +1469,11 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>{'AULA': '202', 'AFORO': 15}</t>
-        </is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="O15" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -1491,8 +1538,11 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>{'AULA': '203', 'AFORO': 14}</t>
-        </is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="O16" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="17">
@@ -1557,8 +1607,11 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>{'AULA': '201', 'AFORO': 15}</t>
-        </is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="O17" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -1623,8 +1676,11 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>{'AULA': '107', 'AFORO': 19}</t>
-        </is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="O18" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="19">
@@ -1689,8 +1745,11 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>{'AULA': '104', 'AFORO': 13}</t>
-        </is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="O19" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="20">
@@ -1704,12 +1763,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>B08CP</t>
+          <t>B08RP</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>07:00 - 14:26</t>
+          <t>16:00 - 17:30</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1718,11 +1777,11 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Sabatino</t>
+          <t>Diario</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1737,17 +1796,17 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2. Sab</t>
+          <t>1. Lun - Vie</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>['07:00 - 08:41', '08:55 - 10:36', '10:50 - 12:31', '12:45 - 14:26']</t>
+          <t>['16:00 - 17:30']</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>['SAB']</t>
+          <t>['JUE', 'LUN', 'MAR', 'MIE', 'VIE']</t>
         </is>
       </c>
       <c r="M20" t="n">
@@ -1755,8 +1814,11 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>{'AULA': '107', 'AFORO': 19}</t>
-        </is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="O20" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="21">
@@ -1770,7 +1832,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>B08RP</t>
+          <t>B09RP</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1784,7 +1846,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1821,8 +1883,11 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>{'AULA': '106', 'AFORO': 19}</t>
-        </is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="O21" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="22">
@@ -1836,12 +1901,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>B09CP</t>
+          <t>B10RP</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>07:00 - 14:26</t>
+          <t>17:45 - 19:15</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1850,11 +1915,11 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Sabatino</t>
+          <t>Diario</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1869,17 +1934,17 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2. Sab</t>
+          <t>1. Lun - Vie</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>['07:00 - 08:41', '08:55 - 10:36', '10:50 - 12:31', '12:45 - 14:26']</t>
+          <t>['17:45 - 19:15']</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>['SAB']</t>
+          <t>['JUE', 'LUN', 'MAR', 'MIE', 'VIE']</t>
         </is>
       </c>
       <c r="M22" t="n">
@@ -1887,8 +1952,11 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>{'AULA': '203', 'AFORO': 14}</t>
-        </is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="O22" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="23">
@@ -1902,12 +1970,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>B09RP</t>
+          <t>I01RP</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>16:00 - 17:30</t>
+          <t>17:45 - 19:15</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1916,7 +1984,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1925,7 +1993,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>BAS</t>
+          <t>INT</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1940,7 +2008,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>['16:00 - 17:30']</t>
+          <t>['17:45 - 19:15']</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -1953,8 +2021,11 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>{'AULA': '201', 'AFORO': 15}</t>
-        </is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="O23" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="24">
@@ -1968,12 +2039,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>B10CP</t>
+          <t>I02RP</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>07:00 - 14:26</t>
+          <t>17:45 - 19:15</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1986,12 +2057,12 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Sabatino</t>
+          <t>Diario</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>BAS</t>
+          <t>INT</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2001,17 +2072,17 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2. Sab</t>
+          <t>1. Lun - Vie</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>['07:00 - 08:41', '08:55 - 10:36', '10:50 - 12:31', '12:45 - 14:26']</t>
+          <t>['17:45 - 19:15']</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>['SAB']</t>
+          <t>['JUE', 'LUN', 'MAR', 'MIE', 'VIE']</t>
         </is>
       </c>
       <c r="M24" t="n">
@@ -2019,8 +2090,11 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>{'AULA': '104', 'AFORO': 13}</t>
-        </is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="O24" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="25">
@@ -2034,12 +2108,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>B10RP</t>
+          <t>I05</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>17:45 - 19:15</t>
+          <t>16:00 - 17:30</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2057,7 +2131,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>BAS</t>
+          <t>INT</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2072,7 +2146,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>['17:45 - 19:15']</t>
+          <t>['16:00 - 17:30']</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2085,8 +2159,11 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>{'AULA': '107', 'AFORO': 19}</t>
-        </is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="O25" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="26">
@@ -2100,12 +2177,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>I01RP</t>
+          <t>I10</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>17:45 - 19:15</t>
+          <t>16:00 - 17:30</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2114,45 +2191,48 @@
         </is>
       </c>
       <c r="F26" t="n">
+        <v>14</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Diario</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>1. Lun - Vie</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>['16:00 - 17:30']</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>['JUE', 'LUN', 'MAR', 'MIE', 'VIE']</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>25</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="O26" t="n">
         <v>15</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Diario</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>INT</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>Mensual</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>1. Lun - Vie</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>['17:45 - 19:15']</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>['JUE', 'LUN', 'MAR', 'MIE', 'VIE']</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>25</v>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>{'AULA': '101', 'AFORO': 15}</t>
-        </is>
       </c>
     </row>
     <row r="27">
@@ -2166,12 +2246,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>I02RP</t>
+          <t>B08CP</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>17:45 - 19:15</t>
+          <t>07:00 - 14:26</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2180,16 +2260,16 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Diario</t>
+          <t>Sabatino</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>INT</t>
+          <t>BAS</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2199,17 +2279,17 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>1. Lun - Vie</t>
+          <t>2. Sab</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>['17:45 - 19:15']</t>
+          <t>['07:00 - 08:41', '08:55 - 10:36', '10:50 - 12:31', '12:45 - 14:26']</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>['JUE', 'LUN', 'MAR', 'MIE', 'VIE']</t>
+          <t>['SAB']</t>
         </is>
       </c>
       <c r="M27" t="n">
@@ -2217,8 +2297,11 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>{'AULA': '204', 'AFORO': 19}</t>
-        </is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="O27" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="28">
@@ -2232,12 +2315,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>I05</t>
+          <t>B09CP</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>16:00 - 17:30</t>
+          <t>07:00 - 14:26</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2246,16 +2329,16 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Diario</t>
+          <t>Sabatino</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>INT</t>
+          <t>BAS</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2265,17 +2348,17 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>1. Lun - Vie</t>
+          <t>2. Sab</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>['16:00 - 17:30']</t>
+          <t>['07:00 - 08:41', '08:55 - 10:36', '10:50 - 12:31', '12:45 - 14:26']</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>['JUE', 'LUN', 'MAR', 'MIE', 'VIE']</t>
+          <t>['SAB']</t>
         </is>
       </c>
       <c r="M28" t="n">
@@ -2283,8 +2366,11 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>{'AULA': '103', 'AFORO': 17}</t>
-        </is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="O28" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="29">
@@ -2298,7 +2384,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>I06SI</t>
+          <t>B10CP</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2312,7 +2398,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -2321,7 +2407,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>INT</t>
+          <t>BAS</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2349,8 +2435,11 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>{'AULA': '105', 'AFORO': 24}</t>
-        </is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="O29" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="30">
@@ -2364,7 +2453,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>I09SI</t>
+          <t>I06SI</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2378,7 +2467,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2415,8 +2504,11 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>{'AULA': '102', 'AFORO': 15}</t>
-        </is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="O30" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="31">
@@ -2430,12 +2522,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>I10</t>
+          <t>I09SI</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>16:00 - 17:30</t>
+          <t>07:00 - 14:26</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2444,11 +2536,11 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Diario</t>
+          <t>Sabatino</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2463,17 +2555,17 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>1. Lun - Vie</t>
+          <t>2. Sab</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>['16:00 - 17:30']</t>
+          <t>['07:00 - 08:41', '08:55 - 10:36', '10:50 - 12:31', '12:45 - 14:26']</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>['JUE', 'LUN', 'MAR', 'MIE', 'VIE']</t>
+          <t>['SAB']</t>
         </is>
       </c>
       <c r="M31" t="n">
@@ -2481,8 +2573,11 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>{'AULA': '102', 'AFORO': 15}</t>
-        </is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="O31" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="32">
@@ -2547,8 +2642,11 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>{'AULA': '201', 'AFORO': 15}</t>
-        </is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="O32" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="33">
@@ -2613,8 +2711,11 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>{'AULA': '105', 'AFORO': 24}</t>
-        </is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="O33" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="34">
@@ -2679,8 +2780,11 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>{'AULA': '108', 'AFORO': 12}</t>
-        </is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="O34" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="35">
@@ -2745,8 +2849,11 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>{'AULA': '204', 'AFORO': 19}</t>
-        </is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="O35" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="36">
@@ -2809,11 +2916,8 @@
       <c r="M36" t="n">
         <v>25</v>
       </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>{'AULA': None, 'AFORO': None}</t>
-        </is>
-      </c>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
